--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H2">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.00632761092513</v>
+        <v>0.05271666666666667</v>
       </c>
       <c r="N2">
-        <v>1.00632761092513</v>
+        <v>0.15815</v>
       </c>
       <c r="O2">
-        <v>0.06664325197255708</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="P2">
-        <v>0.06664325197255708</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="Q2">
-        <v>7.993626054638514</v>
+        <v>0.4318258161611112</v>
       </c>
       <c r="R2">
-        <v>7.993626054638514</v>
+        <v>3.88643234545</v>
       </c>
       <c r="S2">
-        <v>0.0126826738385381</v>
+        <v>0.0005598009349303072</v>
       </c>
       <c r="T2">
-        <v>0.0126826738385381</v>
+        <v>0.0005598009349303073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H3">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6182555656903</v>
+        <v>1.046984666666667</v>
       </c>
       <c r="N3">
-        <v>13.6182555656903</v>
+        <v>3.140954</v>
       </c>
       <c r="O3">
-        <v>0.901858229107557</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="P3">
-        <v>0.901858229107557</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="Q3">
-        <v>108.1747547486571</v>
+        <v>8.576320104802445</v>
       </c>
       <c r="R3">
-        <v>108.1747547486571</v>
+        <v>77.18688094322199</v>
       </c>
       <c r="S3">
-        <v>0.1716298864449582</v>
+        <v>0.01111798283764204</v>
       </c>
       <c r="T3">
-        <v>0.1716298864449582</v>
+        <v>0.01111798283764204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H4">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.475634491926978</v>
+        <v>15.25299333333333</v>
       </c>
       <c r="N4">
-        <v>0.475634491926978</v>
+        <v>45.75898</v>
       </c>
       <c r="O4">
-        <v>0.03149851891988587</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="P4">
-        <v>0.03149851891988587</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="Q4">
-        <v>3.778137681879735</v>
+        <v>124.9440966500156</v>
       </c>
       <c r="R4">
-        <v>3.778137681879735</v>
+        <v>1124.49686985014</v>
       </c>
       <c r="S4">
-        <v>0.005994386978931301</v>
+        <v>0.161972303417371</v>
       </c>
       <c r="T4">
-        <v>0.005994386978931301</v>
+        <v>0.161972303417371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.2165418531815</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H5">
-        <v>17.2165418531815</v>
+        <v>24.574343</v>
       </c>
       <c r="I5">
-        <v>0.4124735706354766</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J5">
-        <v>0.4124735706354766</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.00632761092513</v>
+        <v>1.143623666666667</v>
       </c>
       <c r="N5">
-        <v>1.00632761092513</v>
+        <v>3.430871</v>
       </c>
       <c r="O5">
-        <v>0.06664325197255708</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="P5">
-        <v>0.06664325197255708</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="Q5">
-        <v>17.32548143150465</v>
+        <v>9.367933415861446</v>
       </c>
       <c r="R5">
-        <v>17.32548143150465</v>
+        <v>84.31140074275301</v>
       </c>
       <c r="S5">
-        <v>0.02748858009988039</v>
+        <v>0.01214419723948959</v>
       </c>
       <c r="T5">
-        <v>0.02748858009988039</v>
+        <v>0.01214419723948959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H6">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>13.6182555656903</v>
+        <v>0.05271666666666667</v>
       </c>
       <c r="N6">
-        <v>13.6182555656903</v>
+        <v>0.15815</v>
       </c>
       <c r="O6">
-        <v>0.901858229107557</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="P6">
-        <v>0.901858229107557</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="Q6">
-        <v>234.4592669140289</v>
+        <v>0.9129315237666668</v>
       </c>
       <c r="R6">
-        <v>234.4592669140289</v>
+        <v>8.216383713900001</v>
       </c>
       <c r="S6">
-        <v>0.3719926839669818</v>
+        <v>0.001183486260907702</v>
       </c>
       <c r="T6">
-        <v>0.3719926839669818</v>
+        <v>0.001183486260907702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H7">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.475634491926978</v>
+        <v>1.046984666666667</v>
       </c>
       <c r="N7">
-        <v>0.475634491926978</v>
+        <v>3.140954</v>
       </c>
       <c r="O7">
-        <v>0.03149851891988587</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="P7">
-        <v>0.03149851891988587</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="Q7">
-        <v>8.188781137077536</v>
+        <v>18.13136845590267</v>
       </c>
       <c r="R7">
-        <v>8.188781137077536</v>
+        <v>163.182316103124</v>
       </c>
       <c r="S7">
-        <v>0.01299230656861444</v>
+        <v>0.02350474805654814</v>
       </c>
       <c r="T7">
-        <v>0.01299230656861444</v>
+        <v>0.02350474805654815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.1488352228794</v>
+        <v>17.317702</v>
       </c>
       <c r="H8">
-        <v>11.1488352228794</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.2671035746913278</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J8">
-        <v>0.2671035746913278</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00632761092513</v>
+        <v>15.25299333333333</v>
       </c>
       <c r="N8">
-        <v>1.00632761092513</v>
+        <v>45.75898</v>
       </c>
       <c r="O8">
-        <v>0.06664325197255708</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="P8">
-        <v>0.06664325197255708</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="Q8">
-        <v>11.21938071443817</v>
+        <v>264.1467931546534</v>
       </c>
       <c r="R8">
-        <v>11.21938071443817</v>
+        <v>2377.32113839188</v>
       </c>
       <c r="S8">
-        <v>0.01780065083092488</v>
+        <v>0.3424288595836251</v>
       </c>
       <c r="T8">
-        <v>0.01780065083092488</v>
+        <v>0.3424288595836251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.1488352228794</v>
+        <v>17.317702</v>
       </c>
       <c r="H9">
-        <v>11.1488352228794</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.2671035746913278</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J9">
-        <v>0.2671035746913278</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.6182555656903</v>
+        <v>1.143623666666667</v>
       </c>
       <c r="N9">
-        <v>13.6182555656903</v>
+        <v>3.430871</v>
       </c>
       <c r="O9">
-        <v>0.901858229107557</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="P9">
-        <v>0.901858229107557</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="Q9">
-        <v>151.8276873249415</v>
+        <v>19.80493385948067</v>
       </c>
       <c r="R9">
-        <v>151.8276873249415</v>
+        <v>178.244404735326</v>
       </c>
       <c r="S9">
-        <v>0.240889556859419</v>
+        <v>0.02567428827977659</v>
       </c>
       <c r="T9">
-        <v>0.240889556859419</v>
+        <v>0.02567428827977659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H10">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.475634491926978</v>
+        <v>0.05271666666666667</v>
       </c>
       <c r="N10">
-        <v>0.475634491926978</v>
+        <v>0.15815</v>
       </c>
       <c r="O10">
-        <v>0.03149851891988587</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="P10">
-        <v>0.03149851891988587</v>
+        <v>0.003013014833311122</v>
       </c>
       <c r="Q10">
-        <v>5.30277057681184</v>
+        <v>0.6511184512444446</v>
       </c>
       <c r="R10">
-        <v>5.30277057681184</v>
+        <v>5.8600660612</v>
       </c>
       <c r="S10">
-        <v>0.008413367000983938</v>
+        <v>0.0008440827391871878</v>
       </c>
       <c r="T10">
-        <v>0.008413367000983938</v>
+        <v>0.0008440827391871879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.43100485747704</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H11">
-        <v>5.43100485747704</v>
+        <v>37.053848</v>
       </c>
       <c r="I11">
-        <v>0.1301159074107678</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J11">
-        <v>0.1301159074107678</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.00632761092513</v>
+        <v>1.046984666666667</v>
       </c>
       <c r="N11">
-        <v>1.00632761092513</v>
+        <v>3.140954</v>
       </c>
       <c r="O11">
-        <v>0.06664325197255708</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="P11">
-        <v>0.06664325197255708</v>
+        <v>0.05984028449413786</v>
       </c>
       <c r="Q11">
-        <v>5.465370143147646</v>
+        <v>12.93160356566578</v>
       </c>
       <c r="R11">
-        <v>5.465370143147646</v>
+        <v>116.384432090992</v>
       </c>
       <c r="S11">
-        <v>0.008671347203213704</v>
+        <v>0.01676399023699623</v>
       </c>
       <c r="T11">
-        <v>0.008671347203213704</v>
+        <v>0.01676399023699623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.43100485747704</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H12">
-        <v>5.43100485747704</v>
+        <v>37.053848</v>
       </c>
       <c r="I12">
-        <v>0.1301159074107678</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J12">
-        <v>0.1301159074107678</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.6182555656903</v>
+        <v>15.25299333333333</v>
       </c>
       <c r="N12">
-        <v>13.6182555656903</v>
+        <v>45.75898</v>
       </c>
       <c r="O12">
-        <v>0.901858229107557</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="P12">
-        <v>0.901858229107557</v>
+        <v>0.8717830255908123</v>
       </c>
       <c r="Q12">
-        <v>73.96081212762776</v>
+        <v>188.3940321727823</v>
       </c>
       <c r="R12">
-        <v>73.96081212762776</v>
+        <v>1695.54628955504</v>
       </c>
       <c r="S12">
-        <v>0.1173461018361979</v>
+        <v>0.2442261472071562</v>
       </c>
       <c r="T12">
-        <v>0.1173461018361979</v>
+        <v>0.2442261472071562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.43100485747704</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H13">
-        <v>5.43100485747704</v>
+        <v>37.053848</v>
       </c>
       <c r="I13">
-        <v>0.1301159074107678</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J13">
-        <v>0.1301159074107678</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.475634491926978</v>
+        <v>1.143623666666667</v>
       </c>
       <c r="N13">
-        <v>0.475634491926978</v>
+        <v>3.430871</v>
       </c>
       <c r="O13">
-        <v>0.03149851891988587</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="P13">
-        <v>0.03149851891988587</v>
+        <v>0.06536367508173863</v>
       </c>
       <c r="Q13">
-        <v>2.583173236039042</v>
+        <v>14.12521917128978</v>
       </c>
       <c r="R13">
-        <v>2.583173236039042</v>
+        <v>127.126972541608</v>
       </c>
       <c r="S13">
-        <v>0.004098458371356187</v>
+        <v>0.01831134360719498</v>
       </c>
       <c r="T13">
-        <v>0.004098458371356187</v>
+        <v>0.01831134360719498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.228371</v>
+      </c>
+      <c r="H14">
+        <v>18.685113</v>
+      </c>
+      <c r="I14">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="J14">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.05271666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.15815</v>
+      </c>
+      <c r="O14">
+        <v>0.003013014833311122</v>
+      </c>
+      <c r="P14">
+        <v>0.003013014833311122</v>
+      </c>
+      <c r="Q14">
+        <v>0.3283389578833333</v>
+      </c>
+      <c r="R14">
+        <v>2.95505062095</v>
+      </c>
+      <c r="S14">
+        <v>0.0004256448982859252</v>
+      </c>
+      <c r="T14">
+        <v>0.0004256448982859252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.228371</v>
+      </c>
+      <c r="H15">
+        <v>18.685113</v>
+      </c>
+      <c r="I15">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="J15">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.046984666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.140954</v>
+      </c>
+      <c r="O15">
+        <v>0.05984028449413786</v>
+      </c>
+      <c r="P15">
+        <v>0.05984028449413786</v>
+      </c>
+      <c r="Q15">
+        <v>6.521008935311333</v>
+      </c>
+      <c r="R15">
+        <v>58.689080417802</v>
+      </c>
+      <c r="S15">
+        <v>0.008453563362951437</v>
+      </c>
+      <c r="T15">
+        <v>0.008453563362951437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.228371</v>
+      </c>
+      <c r="H16">
+        <v>18.685113</v>
+      </c>
+      <c r="I16">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="J16">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.25299333333333</v>
+      </c>
+      <c r="N16">
+        <v>45.75898</v>
+      </c>
+      <c r="O16">
+        <v>0.8717830255908123</v>
+      </c>
+      <c r="P16">
+        <v>0.8717830255908123</v>
+      </c>
+      <c r="Q16">
+        <v>95.00130134052668</v>
+      </c>
+      <c r="R16">
+        <v>855.0117120647401</v>
+      </c>
+      <c r="S16">
+        <v>0.12315571538266</v>
+      </c>
+      <c r="T16">
+        <v>0.12315571538266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.228371</v>
+      </c>
+      <c r="H17">
+        <v>18.685113</v>
+      </c>
+      <c r="I17">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="J17">
+        <v>0.1412687695991749</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.143623666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.430871</v>
+      </c>
+      <c r="O17">
+        <v>0.06536367508173863</v>
+      </c>
+      <c r="P17">
+        <v>0.06536367508173863</v>
+      </c>
+      <c r="Q17">
+        <v>7.122912480380334</v>
+      </c>
+      <c r="R17">
+        <v>64.10621232342301</v>
+      </c>
+      <c r="S17">
+        <v>0.009233845955277461</v>
+      </c>
+      <c r="T17">
+        <v>0.009233845955277461</v>
       </c>
     </row>
   </sheetData>
